--- a/bin/ProjectAutomationFiles/testcases/Login_TestSuite.xlsx
+++ b/bin/ProjectAutomationFiles/testcases/Login_TestSuite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -22,21 +22,6 @@
     <t>Steps</t>
   </si>
   <si>
-    <t>Login with a valid user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then User should be able to login </t>
-  </si>
-  <si>
-    <t>And Login text should be displaye</t>
-  </si>
-  <si>
-    <t>WhenUser logs in with valid credentials</t>
-  </si>
-  <si>
-    <t>Given User is on SSP adviser portal</t>
-  </si>
-  <si>
     <t>method_Name</t>
   </si>
   <si>
@@ -52,33 +37,6 @@
     <t>Smoke</t>
   </si>
   <si>
-    <t>login_Page.loginWithUser</t>
-  </si>
-  <si>
-    <t>Comman_Reusables.launchAdviser</t>
-  </si>
-  <si>
-    <t>Home_Page.validate_UserIsLoggedIn</t>
-  </si>
-  <si>
-    <t>Login_Testdata|Login_Credentials|1</t>
-  </si>
-  <si>
-    <t>Home_Page.clickLogoutLink</t>
-  </si>
-  <si>
-    <t>login_Page.validate_UserIsNotLoggedIn</t>
-  </si>
-  <si>
-    <t>Comman_Reusables.closeBrowser</t>
-  </si>
-  <si>
-    <t>Login with a invalid user</t>
-  </si>
-  <si>
-    <t>Login_Testdata|Login_Credentials|2</t>
-  </si>
-  <si>
     <t>Login.001</t>
   </si>
   <si>
@@ -88,7 +46,52 @@
     <t>Login.003</t>
   </si>
   <si>
-    <t xml:space="preserve">Login </t>
+    <t>User is on way2automationHomePage</t>
+  </si>
+  <si>
+    <t>Comman_Reusables.launchURL</t>
+  </si>
+  <si>
+    <t>Home_Page.validateUserIsOnHomePage</t>
+  </si>
+  <si>
+    <t>User clicks on the registration link</t>
+  </si>
+  <si>
+    <t>Home_Page.clickRegistrationLink</t>
+  </si>
+  <si>
+    <t>Registration pop up is displayed</t>
+  </si>
+  <si>
+    <t>Home_Page.validateRegistrationFormDisplayed</t>
+  </si>
+  <si>
+    <t>Register with a valid user</t>
+  </si>
+  <si>
+    <t>home_Page.registrationOnPopUp</t>
+  </si>
+  <si>
+    <t>Registration_testdata|Registration_Details|1</t>
+  </si>
+  <si>
+    <t>Registration_Page.registrationOnRegistrationPage</t>
+  </si>
+  <si>
+    <t>Registration_testdata|Registration_Details|1-2</t>
+  </si>
+  <si>
+    <t>Login First Test Case</t>
+  </si>
+  <si>
+    <t>Registration_testdata|Registration_Details|1-1</t>
+  </si>
+  <si>
+    <t>Login Second Test Case</t>
+  </si>
+  <si>
+    <t>Login Third Test Case</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,16 +454,16 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -469,43 +472,37 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -513,110 +510,137 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
       <c r="E20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
